--- a/Vehicle_live.xlsx
+++ b/Vehicle_live.xlsx
@@ -1856,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>28</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>28</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>28</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="181" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>28</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="182" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>28</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="183" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>28</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="184" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>28</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="185" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>28</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>28</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>28</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>28</v>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>28</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>28</v>

--- a/Vehicle_live.xlsx
+++ b/Vehicle_live.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="284">
   <si>
     <t>Section</t>
   </si>
@@ -895,6 +895,12 @@
   </si>
   <si>
     <t>SCV</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1505,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1581,6 +1587,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1934,13 +1946,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130:A136"/>
+      <selection pane="bottomLeft" activeCell="U134" sqref="U134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1957,7 +1968,7 @@
     <col min="11" max="17" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5">
+    <row r="1" spans="1:19" ht="43.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2009,8 +2020,14 @@
       <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1">
+      <c r="R1" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -2060,8 +2077,14 @@
       <c r="Q2" s="3">
         <v>938.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1">
+      <c r="R2" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S2" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2109,8 +2132,14 @@
       <c r="Q3" s="3">
         <v>600.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1">
+      <c r="R3" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S3" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2156,8 +2185,14 @@
       <c r="Q4" s="3">
         <v>600.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1">
+      <c r="R4" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S4" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2203,8 +2238,14 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="29" hidden="1">
+      <c r="R5" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S5" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2250,8 +2291,14 @@
       <c r="Q6" s="3">
         <v>599.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1">
+      <c r="R6" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S6" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2297,8 +2344,14 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="29" hidden="1">
+      <c r="R7" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S7" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="29">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2346,8 +2399,14 @@
       <c r="Q8" s="3">
         <v>2330.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="29" hidden="1">
+      <c r="R8" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S8" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="29">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2397,8 +2456,14 @@
       <c r="Q9" s="3">
         <v>703</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="29" hidden="1">
+      <c r="R9" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S9">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="29">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2446,8 +2511,14 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1">
+      <c r="R10" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S10" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2495,8 +2566,14 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1">
+      <c r="R11" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S11" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2544,8 +2621,14 @@
       <c r="Q12" s="14">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1">
+      <c r="R12" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S12" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2591,8 +2674,14 @@
       <c r="Q13" s="14">
         <v>600.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1">
+      <c r="R13" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S13" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2642,8 +2731,14 @@
       <c r="Q14" s="14">
         <v>1167.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1">
+      <c r="R14" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S14" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2689,8 +2784,14 @@
       <c r="Q15" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1">
+      <c r="R15" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S15" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2736,8 +2837,14 @@
       <c r="Q16" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="29" hidden="1">
+      <c r="R16" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S16" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2783,8 +2890,14 @@
       <c r="Q17" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="29" hidden="1">
+      <c r="R17" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S17">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="29">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2830,8 +2943,14 @@
       <c r="Q18" s="14">
         <v>1256</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="29" hidden="1">
+      <c r="R18" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S18" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="29">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -2879,8 +2998,14 @@
       <c r="Q19" s="14">
         <v>1221.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" hidden="1">
+      <c r="R19" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S19" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -2928,8 +3053,14 @@
       <c r="Q20" s="14">
         <v>1432.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" hidden="1">
+      <c r="R20" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S20" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
@@ -2977,8 +3108,14 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="29" hidden="1">
+      <c r="R21" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S21" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="29">
       <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
@@ -3028,8 +3165,14 @@
       <c r="Q22" s="3">
         <v>1804.87</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" hidden="1">
+      <c r="R22" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S22" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="9" t="s">
         <v>62</v>
       </c>
@@ -3075,8 +3218,14 @@
       <c r="Q23" s="3">
         <v>1602</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1">
+      <c r="R23" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S23" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
         <v>62</v>
       </c>
@@ -3122,8 +3271,14 @@
       <c r="Q24" s="3">
         <v>999.12</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1">
+      <c r="R24" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S24" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -3169,8 +3324,14 @@
       <c r="Q25" s="3">
         <v>600.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="29" hidden="1">
+      <c r="R25" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S25">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="29">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -3220,8 +3381,14 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1">
+      <c r="R26" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S26" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -3267,8 +3434,14 @@
       <c r="Q27" s="3">
         <v>1123.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1">
+      <c r="R27" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S27" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3314,8 +3487,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1">
+      <c r="R28" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S28" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -3361,8 +3540,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1">
+      <c r="R29" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S29" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -3410,8 +3595,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1">
+      <c r="R30" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S30" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
@@ -3461,8 +3652,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1">
+      <c r="R31" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S31" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -3508,8 +3705,14 @@
       <c r="Q32" s="3">
         <v>601</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="29" hidden="1">
+      <c r="R32" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S32" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -3555,8 +3758,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" hidden="1">
+      <c r="R33" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S33">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3602,8 +3811,14 @@
       <c r="Q34" s="14">
         <v>599.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="29" hidden="1">
+      <c r="R34" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S34" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="29">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3649,8 +3864,14 @@
       <c r="Q35" s="14">
         <v>601.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1">
+      <c r="R35" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S35" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -3696,8 +3917,14 @@
       <c r="Q36" s="14">
         <v>600.12</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="29" hidden="1">
+      <c r="R36" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S36" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -3743,8 +3970,14 @@
       <c r="Q37" s="14">
         <v>601</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" hidden="1">
+      <c r="R37" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S37" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -3790,8 +4023,14 @@
       <c r="Q38" s="14">
         <v>600.37</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" hidden="1">
+      <c r="R38" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S38" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -3841,8 +4080,14 @@
       <c r="Q39" s="14">
         <v>599.87</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" hidden="1">
+      <c r="R39" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S39" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -3888,8 +4133,14 @@
       <c r="Q40" s="14">
         <v>598.87</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="29" hidden="1">
+      <c r="R40" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S40" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="29">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3939,8 +4190,14 @@
       <c r="Q41" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="29" hidden="1">
+      <c r="R41" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S41">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="29">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3988,8 +4245,14 @@
       <c r="Q42" s="14">
         <v>644.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="29" hidden="1">
+      <c r="R42" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S42" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="29">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -4039,8 +4302,14 @@
       <c r="Q43" s="14">
         <v>789.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="29" hidden="1">
+      <c r="R43" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S43" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="29">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -4088,8 +4357,14 @@
       <c r="Q44" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="29" hidden="1">
+      <c r="R44" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S44" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="29">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -4137,8 +4412,14 @@
       <c r="Q45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" hidden="1">
+      <c r="R45" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S45" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -4188,8 +4469,14 @@
       <c r="Q46" s="14">
         <v>938.25</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" hidden="1">
+      <c r="R46" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S46" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -4237,8 +4524,14 @@
       <c r="Q47" s="14">
         <v>600.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1">
+      <c r="R47" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S47" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -4284,8 +4577,14 @@
       <c r="Q48" s="14">
         <v>600.12</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" hidden="1">
+      <c r="R48" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S48" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -4331,8 +4630,14 @@
       <c r="Q49" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" hidden="1">
+      <c r="R49" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S49">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
@@ -4378,8 +4683,14 @@
       <c r="Q50" s="14">
         <v>599.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" hidden="1">
+      <c r="R50" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S50" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -4425,8 +4736,14 @@
       <c r="Q51" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1">
+      <c r="R51" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S51" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -4474,8 +4791,14 @@
       <c r="Q52" s="14">
         <v>2330.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" hidden="1">
+      <c r="R52" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S52" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
@@ -4525,8 +4848,14 @@
       <c r="Q53" s="14">
         <v>703</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1">
+      <c r="R53" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S53" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -4574,8 +4903,14 @@
       <c r="Q54" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" hidden="1">
+      <c r="R54" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S54" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
@@ -4623,8 +4958,14 @@
       <c r="Q55" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1">
+      <c r="R55" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S55" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -4672,8 +5013,14 @@
       <c r="Q56" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1">
+      <c r="R56" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S56" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2" t="s">
         <v>41</v>
       </c>
@@ -4723,8 +5070,14 @@
       <c r="Q57" s="14">
         <v>599.87</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" hidden="1">
+      <c r="R57" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S57">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
         <v>41</v>
       </c>
@@ -4772,8 +5125,14 @@
       <c r="Q58" s="14">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1">
+      <c r="R58" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S58" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -4819,8 +5178,14 @@
       <c r="Q59" s="14">
         <v>600.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1">
+      <c r="R59" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S59" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
@@ -4870,8 +5235,14 @@
       <c r="Q60" s="14">
         <v>1167.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1">
+      <c r="R60" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S60" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -4917,8 +5288,14 @@
       <c r="Q61" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="29" hidden="1">
+      <c r="R61" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S61" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="29">
       <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
@@ -4964,8 +5341,14 @@
       <c r="Q62" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" hidden="1">
+      <c r="R62" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S62" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2" t="s">
         <v>41</v>
       </c>
@@ -5011,8 +5394,14 @@
       <c r="Q63" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" hidden="1">
+      <c r="R63" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S63" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="2" t="s">
         <v>41</v>
       </c>
@@ -5058,8 +5447,14 @@
       <c r="Q64" s="14">
         <v>1256</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" hidden="1">
+      <c r="R64" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S64" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
@@ -5107,8 +5502,14 @@
       <c r="Q65" s="14">
         <v>1221.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="29" hidden="1">
+      <c r="R65" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S65">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="29">
       <c r="A66" s="2" t="s">
         <v>41</v>
       </c>
@@ -5156,8 +5557,14 @@
       <c r="Q66" s="14">
         <v>1432.62</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="29" hidden="1">
+      <c r="R66" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S66" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="29">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
@@ -5205,8 +5612,14 @@
       <c r="Q67" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="29" hidden="1">
+      <c r="R67" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S67" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="29">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
@@ -5256,8 +5669,14 @@
       <c r="Q68" s="14">
         <v>1804.87</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="29" hidden="1">
+      <c r="R68" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S68" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="29">
       <c r="A69" s="2" t="s">
         <v>41</v>
       </c>
@@ -5303,8 +5722,14 @@
       <c r="Q69" s="14">
         <v>1602</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="29" hidden="1">
+      <c r="R69" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S69" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="29">
       <c r="A70" s="2" t="s">
         <v>41</v>
       </c>
@@ -5350,8 +5775,14 @@
       <c r="Q70" s="14">
         <v>999.12</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="29" hidden="1">
+      <c r="R70" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S70" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="29">
       <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
@@ -5397,8 +5828,14 @@
       <c r="Q71" s="14">
         <v>600.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="29" hidden="1">
+      <c r="R71" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S71" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="29">
       <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
@@ -5448,8 +5885,14 @@
       <c r="Q72" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="29" hidden="1">
+      <c r="R72" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S72" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="29">
       <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
@@ -5495,8 +5938,14 @@
       <c r="Q73" s="14">
         <v>1123.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="29" hidden="1">
+      <c r="R73" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S73">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="29">
       <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
@@ -5542,8 +5991,14 @@
       <c r="Q74" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="29" hidden="1">
+      <c r="R74" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S74" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="29">
       <c r="A75" s="2" t="s">
         <v>41</v>
       </c>
@@ -5589,8 +6044,14 @@
       <c r="Q75" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" hidden="1">
+      <c r="R75" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S75" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="2" t="s">
         <v>41</v>
       </c>
@@ -5638,8 +6099,14 @@
       <c r="Q76" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" hidden="1">
+      <c r="R76" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S76" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -5689,8 +6156,14 @@
       <c r="Q77" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="29" hidden="1">
+      <c r="R77" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S77" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="29">
       <c r="A78" s="2" t="s">
         <v>41</v>
       </c>
@@ -5736,8 +6209,14 @@
       <c r="Q78" s="14">
         <v>601</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="29" hidden="1">
+      <c r="R78" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S78" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="29">
       <c r="A79" s="2" t="s">
         <v>41</v>
       </c>
@@ -5783,8 +6262,14 @@
       <c r="Q79" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="29" hidden="1">
+      <c r="R79" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S79" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="29">
       <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
@@ -5830,8 +6315,14 @@
       <c r="Q80" s="14">
         <v>599.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="29" hidden="1">
+      <c r="R80" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S80" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="29">
       <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
@@ -5877,8 +6368,14 @@
       <c r="Q81" s="14">
         <v>601.25</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" ht="29" hidden="1">
+      <c r="R81" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S81">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="29">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -5924,8 +6421,14 @@
       <c r="Q82" s="14">
         <v>600.12</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="29" hidden="1">
+      <c r="R82" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S82" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="29">
       <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
@@ -5971,8 +6474,14 @@
       <c r="Q83" s="14">
         <v>601</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="29" hidden="1">
+      <c r="R83" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S83" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -6018,8 +6527,14 @@
       <c r="Q84" s="14">
         <v>600.37</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="29" hidden="1">
+      <c r="R84" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S84" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="2" t="s">
         <v>41</v>
       </c>
@@ -6069,8 +6584,14 @@
       <c r="Q85" s="14">
         <v>599.87</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="29" hidden="1">
+      <c r="R85" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S85" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -6116,8 +6637,14 @@
       <c r="Q86" s="14">
         <v>598.87</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="29" hidden="1">
+      <c r="R86" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S86" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="2" t="s">
         <v>41</v>
       </c>
@@ -6167,8 +6694,14 @@
       <c r="Q87" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="29" hidden="1">
+      <c r="R87" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S87" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="2" t="s">
         <v>41</v>
       </c>
@@ -6216,8 +6749,14 @@
       <c r="Q88" s="14">
         <v>644.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="29" hidden="1">
+      <c r="R88" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S88" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="2" t="s">
         <v>41</v>
       </c>
@@ -6267,8 +6806,14 @@
       <c r="Q89" s="14">
         <v>789.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="29" hidden="1">
+      <c r="R89" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S89">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="29">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -6316,8 +6861,14 @@
       <c r="Q90" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="29" hidden="1">
+      <c r="R90" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S90" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="29">
       <c r="A91" s="2" t="s">
         <v>62</v>
       </c>
@@ -6365,8 +6916,14 @@
       <c r="Q91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" hidden="1">
+      <c r="R91" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S91" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="2" t="s">
         <v>62</v>
       </c>
@@ -6416,8 +6973,14 @@
       <c r="Q92" s="3">
         <v>938.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" hidden="1">
+      <c r="R92" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S92" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="2" t="s">
         <v>62</v>
       </c>
@@ -6465,8 +7028,14 @@
       <c r="Q93" s="3">
         <v>600.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="29" hidden="1">
+      <c r="R93" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S93" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="29">
       <c r="A94" s="2" t="s">
         <v>62</v>
       </c>
@@ -6512,8 +7081,14 @@
       <c r="Q94" s="3">
         <v>600.12</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="29" hidden="1">
+      <c r="R94" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S94" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="29">
       <c r="A95" s="2" t="s">
         <v>62</v>
       </c>
@@ -6559,8 +7134,14 @@
       <c r="Q95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="29" hidden="1">
+      <c r="R95" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S95" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="29">
       <c r="A96" s="2" t="s">
         <v>62</v>
       </c>
@@ -6606,8 +7187,14 @@
       <c r="Q96" s="3">
         <v>599.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" ht="29" hidden="1">
+      <c r="R96" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S96" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="29">
       <c r="A97" s="2" t="s">
         <v>62</v>
       </c>
@@ -6653,8 +7240,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" hidden="1">
+      <c r="R97" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S97">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="2" t="s">
         <v>62</v>
       </c>
@@ -6702,8 +7295,14 @@
       <c r="Q98" s="3">
         <v>2330.75</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="29" hidden="1">
+      <c r="R98" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S98" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="29">
       <c r="A99" s="2" t="s">
         <v>62</v>
       </c>
@@ -6753,8 +7352,14 @@
       <c r="Q99" s="3">
         <v>703</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" hidden="1">
+      <c r="R99" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S99" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="2" t="s">
         <v>22</v>
       </c>
@@ -6802,8 +7407,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" hidden="1">
+      <c r="R100" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S100" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="2" t="s">
         <v>22</v>
       </c>
@@ -6851,8 +7462,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" hidden="1">
+      <c r="R101" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S101" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="2" t="s">
         <v>22</v>
       </c>
@@ -6900,8 +7517,14 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" hidden="1">
+      <c r="R102" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S102" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="2" t="s">
         <v>22</v>
       </c>
@@ -6951,8 +7574,14 @@
       <c r="Q103" s="3">
         <v>599.87</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" hidden="1">
+      <c r="R103" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S103" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="2" t="s">
         <v>22</v>
       </c>
@@ -7000,8 +7629,14 @@
       <c r="Q104" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" hidden="1">
+      <c r="R104" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S104" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="2" t="s">
         <v>22</v>
       </c>
@@ -7047,8 +7682,14 @@
       <c r="Q105" s="3">
         <v>600.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" hidden="1">
+      <c r="R105" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S105">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="2" t="s">
         <v>22</v>
       </c>
@@ -7098,8 +7739,14 @@
       <c r="Q106" s="3">
         <v>1167.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" hidden="1">
+      <c r="R106" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S106" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="2" t="s">
         <v>22</v>
       </c>
@@ -7145,8 +7792,14 @@
       <c r="Q107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" hidden="1">
+      <c r="R107" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S107" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="2" t="s">
         <v>22</v>
       </c>
@@ -7192,8 +7845,14 @@
       <c r="Q108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" hidden="1">
+      <c r="R108" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S108" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="2" t="s">
         <v>22</v>
       </c>
@@ -7239,8 +7898,14 @@
       <c r="Q109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" hidden="1">
+      <c r="R109" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S109" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -7286,8 +7951,14 @@
       <c r="Q110" s="3">
         <v>1256</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" hidden="1">
+      <c r="R110" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S110" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="2" t="s">
         <v>22</v>
       </c>
@@ -7335,8 +8006,14 @@
       <c r="Q111" s="3">
         <v>1221.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" hidden="1">
+      <c r="R111" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S111" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="2" t="s">
         <v>22</v>
       </c>
@@ -7384,8 +8061,14 @@
       <c r="Q112" s="3">
         <v>1432.62</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" hidden="1">
+      <c r="R112" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S112" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -7433,8 +8116,14 @@
       <c r="Q113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" hidden="1">
+      <c r="R113" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S113">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="2" t="s">
         <v>22</v>
       </c>
@@ -7484,8 +8173,14 @@
       <c r="Q114" s="3">
         <v>1804.87</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" hidden="1">
+      <c r="R114" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S114" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="2" t="s">
         <v>22</v>
       </c>
@@ -7531,8 +8226,14 @@
       <c r="Q115" s="3">
         <v>1602</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" hidden="1">
+      <c r="R115" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S115" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="2" t="s">
         <v>22</v>
       </c>
@@ -7578,8 +8279,14 @@
       <c r="Q116" s="3">
         <v>999.12</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" hidden="1">
+      <c r="R116" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S116" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="2" t="s">
         <v>22</v>
       </c>
@@ -7625,8 +8332,14 @@
       <c r="Q117" s="3">
         <v>600.25</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" hidden="1">
+      <c r="R117" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S117" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="2" t="s">
         <v>22</v>
       </c>
@@ -7676,8 +8389,14 @@
       <c r="Q118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" hidden="1">
+      <c r="R118" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S118" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="2" t="s">
         <v>22</v>
       </c>
@@ -7723,8 +8442,14 @@
       <c r="Q119" s="3">
         <v>1123.3</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" hidden="1">
+      <c r="R119" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S119" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
@@ -7770,8 +8495,14 @@
       <c r="Q120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" hidden="1">
+      <c r="R120" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S120" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="2" t="s">
         <v>22</v>
       </c>
@@ -7817,8 +8548,14 @@
       <c r="Q121" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" hidden="1">
+      <c r="R121" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S121">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="2" t="s">
         <v>22</v>
       </c>
@@ -7866,8 +8603,14 @@
       <c r="Q122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" hidden="1">
+      <c r="R122" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S122" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="2" t="s">
         <v>22</v>
       </c>
@@ -7917,8 +8660,14 @@
       <c r="Q123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" hidden="1">
+      <c r="R123" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S123" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="2" t="s">
         <v>22</v>
       </c>
@@ -7964,8 +8713,14 @@
       <c r="Q124" s="3">
         <v>601</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="29" hidden="1">
+      <c r="R124" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S124" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="29">
       <c r="A125" s="7" t="s">
         <v>14</v>
       </c>
@@ -8013,8 +8768,14 @@
       <c r="Q125" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="29" hidden="1">
+      <c r="R125" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S125" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="29">
       <c r="A126" s="7" t="s">
         <v>14</v>
       </c>
@@ -8064,8 +8825,14 @@
       <c r="Q126" s="3">
         <v>599.87</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="29.5" hidden="1" thickBot="1">
+      <c r="R126" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S126" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="29.5" thickBot="1">
       <c r="A127" s="7" t="s">
         <v>14</v>
       </c>
@@ -8111,8 +8878,14 @@
       <c r="Q127" s="14">
         <v>890</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" ht="29" hidden="1">
+      <c r="R127" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S127" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="29">
       <c r="A128" s="20" t="s">
         <v>14</v>
       </c>
@@ -8158,8 +8931,14 @@
       <c r="Q128" s="24">
         <v>1210</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S128" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="2" t="s">
         <v>281</v>
       </c>
@@ -8203,8 +8982,14 @@
       <c r="Q129" s="14">
         <v>1201</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129" s="29">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="S129">
+        <v>75.308599999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="2" t="s">
         <v>281</v>
       </c>
@@ -8248,8 +9033,14 @@
       <c r="Q130" s="14">
         <v>892</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130" s="29">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="S130" s="29">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="2" t="s">
         <v>281</v>
       </c>
@@ -8293,8 +9084,14 @@
       <c r="Q131" s="14">
         <v>992</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131" s="29">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="S131" s="29">
+        <v>72.877700000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="2" t="s">
         <v>281</v>
       </c>
@@ -8338,8 +9135,14 @@
       <c r="Q132" s="14">
         <v>1341</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132" s="29">
+        <v>12.9716</v>
+      </c>
+      <c r="S132" s="29">
+        <v>77.5946</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="2" t="s">
         <v>281</v>
       </c>
@@ -8383,8 +9186,14 @@
       <c r="Q133" s="14">
         <v>1721</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133" s="29">
+        <v>22.572600000000001</v>
+      </c>
+      <c r="S133" s="29">
+        <v>88.363900000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="2" t="s">
         <v>281</v>
       </c>
@@ -8428,8 +9237,14 @@
       <c r="Q134" s="14">
         <v>1444</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134" s="29">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="S134" s="29">
+        <v>80.270700000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="2" t="s">
         <v>281</v>
       </c>
@@ -8473,8 +9288,14 @@
       <c r="Q135" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135" s="29">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="S135" s="29">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="2" t="s">
         <v>281</v>
       </c>
@@ -8518,8 +9339,14 @@
       <c r="Q136" s="14">
         <v>1452</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136" s="29">
+        <v>18.520399999999999</v>
+      </c>
+      <c r="S136" s="29">
+        <v>73.856700000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
@@ -8530,8 +9357,9 @@
       <c r="O137" s="26"/>
       <c r="P137" s="25"/>
       <c r="Q137" s="26"/>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137" s="29"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -8543,7 +9371,7 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:19">
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -8555,7 +9383,7 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:19">
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -8567,7 +9395,7 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="14"/>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:19">
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -8579,7 +9407,7 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:19">
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
@@ -8591,7 +9419,7 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:19">
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -8604,13 +9432,7 @@
       <c r="Q143" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q136">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Titan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q136"/>
   <conditionalFormatting sqref="D33">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
